--- a/documents/from information/Информация к расписанию КСАИТ 1 семестр.xlsx
+++ b/documents/from information/Информация к расписанию КСАИТ 1 семестр.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/документы для вкр/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/from information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA794AEC-3D52-B848-BB43-9509255A35D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E616C8-AC72-7341-91B1-F8B09DAD6FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Нагрузка КСАИТ" sheetId="47" r:id="rId1"/>
@@ -872,7 +872,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -961,6 +961,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1401,8 +1407,8 @@
   </sheetPr>
   <dimension ref="A1:O1045140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O163" sqref="O163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10615,6 +10621,7 @@
     <sortCondition ref="D2:D213"/>
     <sortCondition ref="L2:L213"/>
   </sortState>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="38" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
